--- a/data/trans_dic/P16A11-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A11-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,16%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,04%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,33%</t>
         </is>
       </c>
     </row>
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,0; 0,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,0; 0,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>0,0; 0,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,32 +754,32 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,0; 1,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,0; 3,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,0; 0,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,0; 0,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,0; 0,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,0; 1,83</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,77%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,0; 0,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,42; 2,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,33; 2,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,0; 1,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,3; 1,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,6; 2,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,0; 1,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,38; 2,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,2; 1,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,66; 2,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,31; 1,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,34; 1,58</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,72%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,56; 4,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>3,03; 6,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,9; 4,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,12; 5,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,79; 5,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,11; 4,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,43; 3,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>1,16; 3,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,46; 4,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,88; 5,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,94; 3,74</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>1,87; 3,81</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,09%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>9,82; 15,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>9,33; 14,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>10,78; 16,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>10,24; 16,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>8,0; 13,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>10,85; 16,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>7,28; 12,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>10,56; 15,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>9,77; 13,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>10,71; 14,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>9,83; 13,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>11,27; 15,19</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,32%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,33%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,34%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,84%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,2%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,63%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,68%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>25,63; 35,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>30,95; 40,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>18,51; 26,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>24,91; 32,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>27,86; 37,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>35,04; 44,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>25,85; 34,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>22,7; 27,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>28,16; 34,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>34,42; 41,37</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>23,44; 29,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>24,56; 28,98</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,74%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,56%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,9%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,18%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,11%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,22%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,75%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,92%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>37,24; 46,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>50,28; 59,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>43,78; 51,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>48,77; 55,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>47,31; 54,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>57,21; 64,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>47,78; 55,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>54,6; 71,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>44,24; 50,04</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>55,31; 60,68</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>46,99; 52,59</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>53,44; 66,64</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,91%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,31%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>11,61; 13,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>15,38; 18,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>13,57; 15,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,83; 20,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>15,53; 18,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>19,46; 22,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>16,42; 19,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>20,47; 30,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>13,76; 15,46</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>17,93; 19,82</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>15,46; 17,32</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>19,77; 26,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A11-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,25%</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,13</t>
+          <t>0,0; 2,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,83</t>
+          <t>0,0; 1,35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,71%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,66</t>
+          <t>0,0; 1,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,33</t>
+          <t>0,3; 2,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,58</t>
+          <t>0,3; 1,48</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,73%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,51</t>
+          <t>2,12; 5,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,1</t>
+          <t>1,21; 3,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,81</t>
+          <t>1,89; 3,83</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>11,29%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,24; 16,47</t>
+          <t>4,49; 15,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,56; 15,91</t>
+          <t>9,66; 14,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,27; 15,19</t>
+          <t>6,94; 14,12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>28,34%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>25,17%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>26,78%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,91; 32,01</t>
+          <t>25,18; 32,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,7; 27,81</t>
+          <t>22,65; 27,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>24,56; 28,98</t>
+          <t>24,67; 29,07</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>42,0%</t>
+          <t>38,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>54,74%</t>
+          <t>50,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>47,56%</t>
+          <t>41,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>52,12%</t>
+          <t>47,8%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>50,9%</t>
+          <t>45,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>60,86%</t>
+          <t>56,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>51,42%</t>
+          <t>45,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>60,18%</t>
+          <t>63,79%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>47,11%</t>
+          <t>42,43%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>58,22%</t>
+          <t>54,03%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>49,75%</t>
+          <t>43,7%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>56,92%</t>
+          <t>57,77%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>37,24; 46,12</t>
+          <t>33,12; 44,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>50,28; 59,07</t>
+          <t>45,12; 57,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>43,78; 51,26</t>
+          <t>36,73; 47,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>48,77; 55,1</t>
+          <t>43,44; 51,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>47,31; 54,74</t>
+          <t>40,62; 51,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>57,21; 64,66</t>
+          <t>51,86; 62,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>47,78; 55,48</t>
+          <t>40,15; 50,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>54,6; 71,91</t>
+          <t>44,7; 86,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>44,24; 50,04</t>
+          <t>38,86; 46,21</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>55,31; 60,68</t>
+          <t>50,11; 57,92</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>46,99; 52,59</t>
+          <t>39,67; 47,31</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>53,44; 66,64</t>
+          <t>45,73; 80,61</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>46,91%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>59,53%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>54,87%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>57,65%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>56,14%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>64,57%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,76%</t>
+          <t>57,23%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>64,72%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>52,57%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>62,59%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>56,31%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>61,89%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>39,89; 53,71</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>53,23; 66,34</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>49,14; 60,25</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>52,89; 62,16</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>50,35; 61,51</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>59,35; 69,26</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>51,22; 62,42</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>61,41; 67,9</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>48,24; 56,93</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>58,93; 66,62</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>52,09; 60,24</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>59,41; 64,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12,63%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>16,64%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>14,84%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>17,74%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>16,67%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>20,91%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>17,76%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>24,68%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>14,68%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>18,81%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>16,33%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>21,3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>11,61; 13,82</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>15,38; 18,01</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>13,57; 15,99</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>17,83; 20,6</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>13,47; 19,44</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>15,53; 18,1</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>19,46; 22,4</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>16,42; 19,24</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>20,47; 30,5</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>19,74; 37,13</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>13,76; 15,46</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>17,93; 19,82</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>15,46; 17,32</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>19,77; 26,44</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>18,38; 30,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16A11-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 0,79</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,19</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,49</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,23</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,39</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,46</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,15</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,55</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,38</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 0,8</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,96</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,49</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,22</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,39</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,46</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,14</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,59</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,35</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,55</t>
-        </is>
-      </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,51</t>
+          <t>0,0; 0,49</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,35</t>
+          <t>0,02; 1,44</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,96</t>
+          <t>0,0; 0,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,16</t>
+          <t>0,41; 2,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,16</t>
+          <t>0,33; 2,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,55</t>
+          <t>0,0; 1,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,7</t>
+          <t>0,28; 1,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,9</t>
+          <t>0,62; 2,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 1,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,23</t>
+          <t>0,32; 2,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,02</t>
+          <t>0,2; 1,01</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,05</t>
+          <t>0,62; 2,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,34</t>
+          <t>0,25; 1,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,48</t>
+          <t>0,28; 1,41</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,04</t>
+          <t>1,64; 4,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 6,51</t>
+          <t>3,14; 6,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,79</t>
+          <t>1,95; 4,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,41</t>
+          <t>2,18; 5,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,77</t>
+          <t>2,79; 5,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,77</t>
+          <t>2,05; 4,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,81</t>
+          <t>1,34; 3,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,22</t>
+          <t>1,2; 3,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 4,54</t>
+          <t>2,55; 4,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 5,01</t>
+          <t>2,91; 5,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 3,74</t>
+          <t>1,95; 3,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,83</t>
+          <t>1,95; 3,74</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,82; 15,87</t>
+          <t>9,93; 16,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,33; 14,64</t>
+          <t>9,2; 14,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,78; 16,56</t>
+          <t>11,31; 16,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 15,68</t>
+          <t>4,69; 15,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,0; 13,4</t>
+          <t>8,19; 13,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,85; 16,4</t>
+          <t>10,7; 16,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,28; 12,18</t>
+          <t>7,15; 11,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,66; 14,84</t>
+          <t>9,77; 14,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,77; 13,72</t>
+          <t>9,89; 13,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,71; 14,66</t>
+          <t>10,56; 14,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,83; 13,5</t>
+          <t>9,8; 13,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 14,12</t>
+          <t>6,72; 14,07</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,63; 35,55</t>
+          <t>25,86; 35,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30,95; 40,75</t>
+          <t>30,58; 40,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,51; 26,72</t>
+          <t>18,65; 26,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,18; 32,23</t>
+          <t>25,04; 32,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,86; 37,15</t>
+          <t>27,73; 36,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>35,04; 44,65</t>
+          <t>35,38; 44,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,85; 34,33</t>
+          <t>26,05; 34,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,65; 27,76</t>
+          <t>22,71; 28,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,16; 34,87</t>
+          <t>27,99; 34,84</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>34,42; 41,37</t>
+          <t>34,4; 41,16</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23,44; 29,25</t>
+          <t>23,35; 29,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>24,67; 29,07</t>
+          <t>24,81; 29,12</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>33,12; 44,2</t>
+          <t>32,92; 44,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,12; 57,56</t>
+          <t>45,04; 56,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>36,73; 47,24</t>
+          <t>36,56; 48,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>43,44; 51,86</t>
+          <t>43,43; 51,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>40,62; 51,05</t>
+          <t>40,8; 50,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>51,86; 62,25</t>
+          <t>51,13; 61,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,15; 50,58</t>
+          <t>39,97; 50,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>44,7; 86,35</t>
+          <t>43,94; 84,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>38,86; 46,21</t>
+          <t>38,83; 46,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>50,11; 57,92</t>
+          <t>50,22; 58,17</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>39,67; 47,31</t>
+          <t>40,05; 47,45</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>45,73; 80,61</t>
+          <t>45,96; 79,58</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>39,89; 53,71</t>
+          <t>40,59; 53,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>53,23; 66,34</t>
+          <t>52,07; 65,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>49,14; 60,25</t>
+          <t>49,11; 60,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>52,89; 62,16</t>
+          <t>53,08; 61,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50,35; 61,51</t>
+          <t>50,76; 61,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>59,35; 69,26</t>
+          <t>59,43; 69,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>51,22; 62,42</t>
+          <t>51,86; 62,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>61,41; 67,9</t>
+          <t>61,2; 67,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>48,24; 56,93</t>
+          <t>47,85; 56,62</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>58,93; 66,62</t>
+          <t>58,43; 66,67</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>52,09; 60,24</t>
+          <t>52,3; 60,16</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>59,41; 64,78</t>
+          <t>58,94; 64,63</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,61; 13,82</t>
+          <t>11,59; 13,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>15,38; 18,01</t>
+          <t>15,25; 18,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,57; 15,99</t>
+          <t>13,68; 16,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,47; 19,44</t>
+          <t>13,67; 19,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,53; 18,1</t>
+          <t>15,41; 18,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>19,46; 22,4</t>
+          <t>19,62; 22,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,42; 19,24</t>
+          <t>16,43; 19,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,74; 37,13</t>
+          <t>19,8; 39,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,76; 15,46</t>
+          <t>13,84; 15,6</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>17,93; 19,82</t>
+          <t>17,85; 19,77</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>15,46; 17,32</t>
+          <t>15,46; 17,33</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>18,38; 30,77</t>
+          <t>18,5; 30,12</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>902</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1621</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>902</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1790</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3879</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5384</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2044</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 901</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1832</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1958</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4531</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7974</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3684</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7100</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3999</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>158; 10235</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1766</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6835</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5633</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8515</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1895</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4633</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6494</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15350</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7529</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6612</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5401</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2830; 14136</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1945; 13073</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7135</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1758; 10299</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3798; 17593</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6659</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1624; 10766</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2777; 13686</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8003; 27278</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2937; 15586</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2629; 13191</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>16655</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>31364</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>21270</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18593</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>28780</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22579</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>15256</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10876</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>45435</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>53943</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>36526</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>29469</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10450; 25853</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>21346; 43636</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13017; 31016</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11718; 29343</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>19260; 40040</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>14442; 33004</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8833; 24572</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6492; 17036</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>33913; 59260</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>40359; 70246</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>25961; 50321</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>20994; 40362</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>66073</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>72529</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>88877</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>95251</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>54706</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>81078</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>61417</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>85389</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>120779</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>153607</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>150294</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>180640</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>51571; 83158</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>56574; 91070</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>73053; 108268</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>41598; 141196</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>42227; 70737</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>65702; 101145</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>46429; 77341</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>69646; 105141</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>102301; 141163</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>129698; 178671</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>126878; 174794</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>107566; 225258</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>117256</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>151348</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>106585</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>158793</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>130658</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>177934</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>150066</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>137169</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>247914</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>329282</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>256651</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>295962</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>99990; 136043</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>130993; 171578</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>89122; 127200</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>140265; 181164</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>112042; 148307</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>158031; 199876</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>129407; 172308</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>123745; 152587</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>221302; 275517</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>300967; 360133</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>227598; 287074</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>274141; 321833</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>112584</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>157590</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>140214</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>175550</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>157063</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>201044</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>170967</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>388067</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>269648</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>358635</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>311181</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>563617</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>96329; 129781</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>139533; 175576</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>122224; 161277</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>159504; 189318</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>139901; 174803</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>181012; 219375</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>150995; 189324</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>267297; 513650</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>246743; 292983</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>333383; 386145</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>285201; 337878</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>448424; 776384</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>858</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>98446</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>148727</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>141009</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>163003</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>187449</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>250391</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>229021</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>274886</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>285895</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>399118</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>370030</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>437889</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>85188; 113226</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>130107; 164280</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>126216; 155457</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>150079; 175055</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>169479; 206868</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>230468; 269951</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>207510; 250187</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>259934; 287901</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>260200; 307902</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>372590; 425088</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>343726; 395374</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>416989; 457233</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1388</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2247</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>413562</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>569354</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>503588</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>613339</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>563384</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>741541</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>629524</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>902641</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>976946</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1310894</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1133112</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1515979</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>379776; 455223</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>521960; 617425</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>464438; 546579</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>472651; 678362</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>520780; 611006</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>695928; 791566</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>582339; 677238</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>724417; 1439981</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>920899; 1037997</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1243721; 1377777</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1072519; 1202296</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1316310; 2143246</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>